--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
   <si>
     <t>id_estancia</t>
   </si>
@@ -53,23 +53,32 @@
     <t>n_carneros</t>
   </si>
   <si>
-    <t xml:space="preserve">, </t>
-  </si>
-  <si>
     <t>comuna</t>
   </si>
   <si>
     <t>Punta Arenas</t>
   </si>
   <si>
-    <t>Puerto Natales</t>
+    <t>Natales</t>
+  </si>
+  <si>
+    <t>Porvenir</t>
+  </si>
+  <si>
+    <t>Timaukel</t>
+  </si>
+  <si>
+    <t>San Gregorio</t>
+  </si>
+  <si>
+    <t>Primavera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,12 +90,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,10 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,20 +395,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -438,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2026</v>
@@ -473,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2026</v>
@@ -508,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2025</v>
@@ -543,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2024</v>
@@ -578,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -613,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -643,9 +648,1159 @@
         <v>3700</v>
       </c>
     </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2026</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+      <c r="H8">
+        <f>+G8-100</f>
+        <v>1900</v>
+      </c>
+      <c r="I8">
+        <f>+H8-100</f>
+        <v>1800</v>
+      </c>
+      <c r="J8">
+        <f>+I8-100</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2026</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:J13" si="6">+G9-100</f>
+        <v>4900</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>4800</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>2025</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>4000</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:I10" si="7">+G10-100</f>
+        <v>3900</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>3800</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>2024</v>
+      </c>
+      <c r="D11">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>85</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>3000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:I11" si="8">+G11-100</f>
+        <v>2900</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="8"/>
+        <v>2800</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>2700</v>
+      </c>
+    </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>2023</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>5000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:I12" si="9">+G12-100</f>
+        <v>4900</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="9"/>
+        <v>4800</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>4000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:I13" si="10">+G13-100</f>
+        <v>3900</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="10"/>
+        <v>3800</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>2026</v>
+      </c>
+      <c r="D14">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>2000</v>
+      </c>
+      <c r="H14">
+        <f>+G14-100</f>
+        <v>1900</v>
+      </c>
+      <c r="I14">
+        <f>+H14-100</f>
+        <v>1800</v>
+      </c>
+      <c r="J14">
+        <f>+I14-100</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>2026</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>5000</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:J18" si="11">+G15-100</f>
+        <v>4900</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="11"/>
+        <v>4800</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="11"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>2025</v>
+      </c>
+      <c r="D16">
+        <v>85</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>4000</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:I16" si="12">+G16-100</f>
+        <v>3900</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="12"/>
+        <v>3800</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="11"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>2024</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>3000</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:I17" si="13">+G17-100</f>
+        <v>2900</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="13"/>
+        <v>2800</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="11"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>2023</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>5000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:I18" si="14">+G18-100</f>
+        <v>4900</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="14"/>
+        <v>4800</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="11"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>2026</v>
+      </c>
+      <c r="D19">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>2000</v>
+      </c>
+      <c r="H19">
+        <f>+G19-100</f>
+        <v>1900</v>
+      </c>
+      <c r="I19">
+        <f>+H19-100</f>
+        <v>1800</v>
+      </c>
+      <c r="J19">
+        <f>+I19-100</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>2026</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>5000</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J24" si="15">+G20-100</f>
+        <v>4900</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="15"/>
+        <v>4800</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="15"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>2025</v>
+      </c>
+      <c r="D21">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>4000</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:I21" si="16">+G21-100</f>
+        <v>3900</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="16"/>
+        <v>3800</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="15"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>2024</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>85</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>3000</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:I22" si="17">+G22-100</f>
+        <v>2900</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="17"/>
+        <v>2800</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="15"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>2023</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>5000</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:I23" si="18">+G23-100</f>
+        <v>4900</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="18"/>
+        <v>4800</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="15"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>55</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>4000</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:I24" si="19">+G24-100</f>
+        <v>3900</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="19"/>
+        <v>3800</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="15"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>2026</v>
+      </c>
+      <c r="D25">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>2000</v>
+      </c>
+      <c r="H25">
+        <f>+G25-100</f>
+        <v>1900</v>
+      </c>
+      <c r="I25">
+        <f>+H25-100</f>
+        <v>1800</v>
+      </c>
+      <c r="J25">
+        <f>+I25-100</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>2026</v>
+      </c>
+      <c r="D26">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+      <c r="F26">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>5000</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:J26" si="20">+G26-100</f>
+        <v>4900</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="20"/>
+        <v>4800</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="20"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>2025</v>
+      </c>
+      <c r="D27">
+        <v>85</v>
+      </c>
+      <c r="E27">
+        <v>80</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>4000</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:J27" si="21">+G27-100</f>
+        <v>3900</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="21"/>
+        <v>3800</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="21"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>2024</v>
+      </c>
+      <c r="D28">
+        <v>75</v>
+      </c>
+      <c r="E28">
+        <v>85</v>
+      </c>
+      <c r="F28">
+        <v>16</v>
+      </c>
+      <c r="G28">
+        <v>3000</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:J28" si="22">+G28-100</f>
+        <v>2900</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="22"/>
+        <v>2800</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="22"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>2023</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>5000</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:J29" si="23">+G29-100</f>
+        <v>4900</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="23"/>
+        <v>4800</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="23"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>2022</v>
+      </c>
+      <c r="D30">
+        <v>55</v>
+      </c>
+      <c r="E30">
+        <v>55</v>
+      </c>
+      <c r="F30">
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <v>4000</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:J30" si="24">+G30-100</f>
+        <v>3900</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="24"/>
+        <v>3800</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="24"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>2026</v>
+      </c>
+      <c r="D31">
+        <v>56</v>
+      </c>
+      <c r="E31">
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>2000</v>
+      </c>
+      <c r="H31">
+        <f>+G31-100</f>
+        <v>1900</v>
+      </c>
+      <c r="I31">
+        <f>+H31-100</f>
+        <v>1800</v>
+      </c>
+      <c r="J31">
+        <f>+I31-100</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>2026</v>
+      </c>
+      <c r="D32">
+        <v>80</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>5000</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:J32" si="25">+G32-100</f>
+        <v>4900</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="25"/>
+        <v>4800</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="25"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>2025</v>
+      </c>
+      <c r="D33">
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <v>80</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>4000</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:J33" si="26">+G33-100</f>
+        <v>3900</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="26"/>
+        <v>3800</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="26"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>2024</v>
+      </c>
+      <c r="D34">
+        <v>75</v>
+      </c>
+      <c r="E34">
+        <v>85</v>
+      </c>
+      <c r="F34">
+        <v>16</v>
+      </c>
+      <c r="G34">
+        <v>3000</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:J34" si="27">+G34-100</f>
+        <v>2900</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="27"/>
+        <v>2800</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="27"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>2023</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+      <c r="E35">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>18</v>
+      </c>
+      <c r="G35">
+        <v>5000</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:J35" si="28">+G35-100</f>
+        <v>4900</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="28"/>
+        <v>4800</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="28"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>2023</v>
+      </c>
+      <c r="D36">
+        <v>60</v>
+      </c>
+      <c r="E36">
+        <v>60</v>
+      </c>
+      <c r="F36">
+        <v>18</v>
+      </c>
+      <c r="G36">
+        <v>5000</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:J36" si="29">+G36-100</f>
+        <v>4900</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="29"/>
+        <v>4800</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="29"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>2022</v>
+      </c>
+      <c r="D37">
+        <v>55</v>
+      </c>
+      <c r="E37">
+        <v>55</v>
+      </c>
+      <c r="F37">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <v>4000</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:J37" si="30">+G37-100</f>
+        <v>3900</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="30"/>
+        <v>3800</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="30"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>2026</v>
+      </c>
+      <c r="D38">
+        <v>56</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>2000</v>
+      </c>
+      <c r="H38">
+        <f>+G38-100</f>
+        <v>1900</v>
+      </c>
+      <c r="I38">
+        <f>+H38-100</f>
+        <v>1800</v>
+      </c>
+      <c r="J38">
+        <f>+I38-100</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>2026</v>
+      </c>
+      <c r="D39">
+        <v>80</v>
+      </c>
+      <c r="E39">
+        <v>65</v>
+      </c>
+      <c r="F39">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>5000</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:J39" si="31">+G39-100</f>
+        <v>4900</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="31"/>
+        <v>4800</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="31"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>2025</v>
+      </c>
+      <c r="D40">
+        <v>85</v>
+      </c>
+      <c r="E40">
+        <v>80</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>4000</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40:J40" si="32">+G40-100</f>
+        <v>3900</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="32"/>
+        <v>3800</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="32"/>
+        <v>3700</v>
       </c>
     </row>
   </sheetData>
